--- a/Bass.xlsx
+++ b/Bass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Bass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487724C7-5639-4FD1-A9AE-377FAD085A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6184DF2D-8CC9-435D-91A8-B09032C43785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{70BC1D73-BAC6-4CFE-8C51-D58E9F36D232}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{70BC1D73-BAC6-4CFE-8C51-D58E9F36D232}"/>
   </bookViews>
   <sheets>
     <sheet name="Base Game" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>Symbols</t>
   </si>
@@ -129,27 +129,9 @@
     <t>Probability move down on:</t>
   </si>
   <si>
-    <t>col1</t>
-  </si>
-  <si>
     <t>p=</t>
   </si>
   <si>
-    <t>col2</t>
-  </si>
-  <si>
-    <t>col3</t>
-  </si>
-  <si>
-    <t>col4</t>
-  </si>
-  <si>
-    <t>col5</t>
-  </si>
-  <si>
-    <t>col6</t>
-  </si>
-  <si>
     <t>Q=</t>
   </si>
   <si>
@@ -259,13 +241,43 @@
   </si>
   <si>
     <t>014</t>
+  </si>
+  <si>
+    <t>Elements in Cluster</t>
+  </si>
+  <si>
+    <t>Probability in Cluster</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>correction</t>
+  </si>
+  <si>
+    <t>Corrected sum</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,8 +294,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,8 +321,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -391,11 +428,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -407,11 +543,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -726,13 +878,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADF9942-2DA8-4D3F-8B62-366C7DB31411}">
-  <dimension ref="A3:AR57"/>
+  <dimension ref="A3:BD57"/>
   <sheetViews>
-    <sheetView topLeftCell="L4" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+    <sheetView tabSelected="1" topLeftCell="P22" workbookViewId="0">
+      <selection activeCell="Y48" sqref="Y48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="32" max="33" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -956,54 +1112,55 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="17" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="3:44" x14ac:dyDescent="0.25">
-      <c r="Q19" t="s">
-        <v>39</v>
-      </c>
-      <c r="R19" t="s">
-        <v>40</v>
-      </c>
-      <c r="S19" t="s">
-        <v>41</v>
-      </c>
-      <c r="T19" t="s">
-        <v>42</v>
-      </c>
-      <c r="U19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="3:44" x14ac:dyDescent="0.25">
-      <c r="P20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20">
+    <row r="19" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="P19" s="15"/>
+      <c r="Q19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="P20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="19">
         <v>0.1</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="19">
         <f>3*$Q$20*(1-$Q$20)^2</f>
         <v>0.24300000000000005</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="19">
         <f>3*$Q$20^2*(1-$Q$20)</f>
         <v>2.7000000000000007E-2</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="19">
         <f>$Q$20^3</f>
         <v>1.0000000000000002E-3</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="20">
         <f>2*$Q$20^2*(1-$Q$20)^4</f>
         <v>1.3122000000000005E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>18</v>
       </c>
@@ -1023,10 +1180,10 @@
         <v>29</v>
       </c>
       <c r="Q22" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="T22" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -1038,46 +1195,71 @@
         <v>3</v>
       </c>
       <c r="X22" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="Z22" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="AD22" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ22">
-        <v>1</v>
-      </c>
-      <c r="AK22">
+        <v>32</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF22" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN22" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
         <v>2</v>
       </c>
-      <c r="AL22">
+      <c r="AS22">
         <v>3</v>
       </c>
-      <c r="AM22" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AT22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV22" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX22" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD22" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="3:56" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>1</v>
       </c>
@@ -1113,54 +1295,56 @@
         <f>SUM(U23:W23)</f>
         <v>0.72900000000000009</v>
       </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
       <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
         <f>U23</f>
         <v>0.72900000000000009</v>
       </c>
-      <c r="AC23">
-        <f>SUM(Z23:AB23)</f>
+      <c r="AD23">
+        <f>SUM(AA23:AC23)</f>
         <v>0.72900000000000009</v>
       </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <f>Z23</f>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <f>AA23</f>
         <v>0.72900000000000009</v>
       </c>
-      <c r="AH23">
-        <f>SUM(AE23:AG23)</f>
+      <c r="AL23">
+        <f>SUM(AI23:AK23)</f>
         <v>0.72900000000000009</v>
       </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <f>AE23</f>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <f>AI23</f>
         <v>0.72900000000000009</v>
       </c>
-      <c r="AM23">
-        <f>SUM(AJ23:AL23)</f>
+      <c r="AT23">
+        <f>SUM(AQ23:AS23)</f>
         <v>0.72900000000000009</v>
       </c>
-      <c r="AN23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="6">
-        <f>AJ23</f>
+      <c r="AX23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="6">
+        <f>AQ23</f>
         <v>0.72900000000000009</v>
       </c>
-      <c r="AP23" s="6"/>
-      <c r="AQ23" s="6"/>
-      <c r="AR23" s="7">
-        <f>SUM(AO23:AQ23)</f>
+      <c r="AZ23" s="6"/>
+      <c r="BA23" s="6"/>
+      <c r="BB23" s="24">
+        <f>SUM(AY23:BA23)</f>
         <v>0.72900000000000009</v>
       </c>
-    </row>
-    <row r="24" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="BC23" s="6"/>
+      <c r="BD23" s="22"/>
+    </row>
+    <row r="24" spans="3:56" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>2</v>
       </c>
@@ -1203,79 +1387,107 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <f t="shared" ref="X24:X29" si="2">SUM(U24:W24)</f>
+        <f>SUM(U24:W24)</f>
         <v>0.17714700000000005</v>
       </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
       <c r="Z24">
-        <f>X23*Z$34</f>
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <f>X23*AA$34</f>
         <v>0.17714700000000005</v>
       </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
       <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24">
-        <f>SUM(Z24:AB24)</f>
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <f>SUM(AA24:AC24)</f>
         <v>0.17714700000000005</v>
       </c>
-      <c r="AD24">
-        <v>1</v>
-      </c>
       <c r="AE24">
-        <f>Z23*Z$34</f>
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <f>AD24-AE24</f>
         <v>0.17714700000000005</v>
       </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
       <c r="AH24">
-        <f t="shared" ref="AH24:AH35" si="3">SUM(AE24:AG24)</f>
+        <v>1</v>
+      </c>
+      <c r="AI24">
+        <f>AA23*AA$34</f>
         <v>0.17714700000000005</v>
       </c>
-      <c r="AI24">
-        <v>1</v>
-      </c>
       <c r="AJ24">
-        <f>AH23*Z$34</f>
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" ref="AL24:AL35" si="2">SUM(AI24:AK24)</f>
         <v>0.17714700000000005</v>
       </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
       <c r="AM24">
-        <f t="shared" ref="AM24:AM38" si="4">SUM(AJ24:AL24)</f>
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <f>AL24-AM24</f>
         <v>0.17714700000000005</v>
       </c>
-      <c r="AN24" s="5">
-        <v>1</v>
-      </c>
-      <c r="AO24" s="6">
-        <f>AM23*$Z$34</f>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
+        <f>AL23*AA$34</f>
         <v>0.17714700000000005</v>
       </c>
-      <c r="AP24" s="6">
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR24" s="7">
-        <f t="shared" ref="AR24:AR41" si="5">SUM(AO24:AQ24)</f>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" ref="AT24:AT38" si="3">SUM(AQ24:AS24)</f>
         <v>0.17714700000000005</v>
       </c>
-    </row>
-    <row r="25" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <f>AT24-AU24</f>
+        <v>0.17714700000000005</v>
+      </c>
+      <c r="AX24" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY24" s="6">
+        <f>AT23*$AA$34</f>
+        <v>0.17714700000000005</v>
+      </c>
+      <c r="AZ24" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="6">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="24">
+        <f>SUM(AY24:BA24)</f>
+        <v>0.17714700000000005</v>
+      </c>
+      <c r="BC24" s="6">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="31">
+        <f>BB24-BC24</f>
+        <v>0.17714700000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="3:56" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>3</v>
       </c>
@@ -1319,83 +1531,115 @@
         <v>0</v>
       </c>
       <c r="X25">
-        <f t="shared" si="2"/>
+        <f>SUM(U25:W25)</f>
         <v>6.5610000000000029E-2</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>2</v>
       </c>
-      <c r="Z25">
-        <f t="shared" ref="Z25:Z32" si="6">X24*Z$34</f>
+      <c r="AA25">
+        <f t="shared" ref="AA25:AA32" si="4">X24*AA$34</f>
         <v>4.3046721000000024E-2</v>
       </c>
-      <c r="AA25">
-        <f>X23*AA$34</f>
+      <c r="AB25">
+        <f>X23*AB$34</f>
         <v>1.9683000000000006E-2</v>
       </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
       <c r="AC25">
-        <f t="shared" ref="AC25:AC32" si="7">SUM(Z25:AB25)</f>
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" ref="AD25:AD32" si="5">SUM(AA25:AC25)</f>
         <v>6.272972100000003E-2</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
+        <f>U$20*R23</f>
+        <v>9.5659380000000047E-3</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" ref="AF25:AF32" si="6">AD25-AE25</f>
+        <v>5.3163783000000027E-2</v>
+      </c>
+      <c r="AH25">
         <v>2</v>
       </c>
-      <c r="AE25">
-        <f>AC24*Z$34</f>
+      <c r="AI25">
+        <f>AD24*AA$34</f>
         <v>4.3046721000000024E-2</v>
       </c>
-      <c r="AF25">
-        <f>AC23*AA$34</f>
+      <c r="AJ25">
+        <f>AD23*AB$34</f>
         <v>1.9683000000000006E-2</v>
       </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <f>SUM(AI25:AK25)</f>
+        <v>6.272972100000003E-2</v>
+      </c>
+      <c r="AM25">
+        <f>U23*$U$20</f>
+        <v>9.5659380000000047E-3</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" ref="AN25:AN35" si="7">AL25-AM25</f>
+        <v>5.3163783000000027E-2</v>
+      </c>
+      <c r="AP25">
+        <v>2</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" ref="AQ25:AQ37" si="8">AL24*AA$34</f>
+        <v>4.3046721000000024E-2</v>
+      </c>
+      <c r="AR25">
+        <f>AL23*$AB$34</f>
+        <v>1.9683000000000006E-2</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
         <f t="shared" si="3"/>
         <v>6.272972100000003E-2</v>
       </c>
-      <c r="AI25">
+      <c r="AU25">
+        <f>AA23*$U$20</f>
+        <v>9.5659380000000047E-3</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" ref="AV25:AV38" si="9">AT25-AU25</f>
+        <v>5.3163783000000027E-2</v>
+      </c>
+      <c r="AX25" s="5">
         <v>2</v>
       </c>
-      <c r="AJ25">
-        <f t="shared" ref="AJ25:AJ37" si="8">AH24*Z$34</f>
+      <c r="AY25" s="6">
+        <f t="shared" ref="AY25:AY41" si="10">AT24*$AA$34</f>
         <v>4.3046721000000024E-2</v>
       </c>
-      <c r="AK25">
-        <f>AH23*$AA$34</f>
+      <c r="AZ25" s="6">
+        <f>AT23*$AB$34</f>
         <v>1.9683000000000006E-2</v>
       </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <f t="shared" si="4"/>
+      <c r="BA25" s="6">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="24">
+        <f>SUM(AY25:BA25)</f>
         <v>6.272972100000003E-2</v>
       </c>
-      <c r="AN25" s="5">
-        <v>2</v>
-      </c>
-      <c r="AO25" s="6">
-        <f t="shared" ref="AO25:AO41" si="9">AM24*$Z$34</f>
-        <v>4.3046721000000024E-2</v>
-      </c>
-      <c r="AP25" s="6">
-        <f>AM23*$AA$34</f>
-        <v>1.9683000000000006E-2</v>
-      </c>
-      <c r="AQ25" s="6">
-        <v>0</v>
-      </c>
-      <c r="AR25" s="7">
-        <f t="shared" si="5"/>
-        <v>6.272972100000003E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="BC25" s="6">
+        <f>AI23*$U$20</f>
+        <v>9.5659380000000047E-3</v>
+      </c>
+      <c r="BD25" s="31">
+        <f t="shared" ref="BD25:BD42" si="11">BB25-BC25</f>
+        <v>5.3163783000000027E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:56" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>4</v>
       </c>
@@ -1404,7 +1648,7 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:F28" si="10">4*F$4^2*(1-F$4)^12</f>
+        <f t="shared" ref="F26:F28" si="12">4*F$4^2*(1-F$4)^12</f>
         <v>1.1297181459240009E-2</v>
       </c>
       <c r="G26">
@@ -1441,87 +1685,119 @@
         <v>7.2900000000000026E-4</v>
       </c>
       <c r="X26">
+        <f>SUM(U26:W26)</f>
+        <v>9.4770000000000028E-3</v>
+      </c>
+      <c r="Z26">
+        <v>3</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="4"/>
+        <v>1.594323000000001E-2</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" ref="AB26:AB32" si="13">X24*AB$34</f>
+        <v>4.7829690000000024E-3</v>
+      </c>
+      <c r="AC26">
+        <f>X23*AC$34</f>
+        <v>7.2900000000000026E-4</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="5"/>
+        <v>2.1455199000000012E-2</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" ref="AE26:AE28" si="14">U$20*R24</f>
+        <v>3.188646000000002E-3</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="6"/>
+        <v>1.8266553000000008E-2</v>
+      </c>
+      <c r="AH26">
+        <v>3</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" ref="AI26:AI35" si="15">AD25*AA$34</f>
+        <v>1.5243322203000011E-2</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" ref="AJ26:AJ35" si="16">AD24*AB$34</f>
+        <v>4.7829690000000024E-3</v>
+      </c>
+      <c r="AK26">
+        <f>AD23*AC$34</f>
+        <v>7.2900000000000026E-4</v>
+      </c>
+      <c r="AL26">
         <f t="shared" si="2"/>
-        <v>9.4770000000000028E-3</v>
-      </c>
-      <c r="Y26">
+        <v>2.0755291203000015E-2</v>
+      </c>
+      <c r="AM26">
+        <f t="shared" ref="AM26:AM35" si="17">U24*$U$20</f>
+        <v>2.3245229340000018E-3</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="7"/>
+        <v>1.8430768269000013E-2</v>
+      </c>
+      <c r="AP26">
         <v>3</v>
       </c>
-      <c r="Z26">
-        <f t="shared" si="6"/>
-        <v>1.594323000000001E-2</v>
-      </c>
-      <c r="AA26">
-        <f t="shared" ref="AA26:AA32" si="11">X24*AA$34</f>
+      <c r="AQ26">
+        <f t="shared" si="8"/>
+        <v>1.5243322203000011E-2</v>
+      </c>
+      <c r="AR26">
+        <f t="shared" ref="AR26:AR37" si="18">AL24*$AB$34</f>
         <v>4.7829690000000024E-3</v>
       </c>
-      <c r="AB26">
-        <f>X23*AB$34</f>
+      <c r="AS26">
+        <f>AL23*$AC$34</f>
         <v>7.2900000000000026E-4</v>
       </c>
-      <c r="AC26">
-        <f t="shared" si="7"/>
-        <v>2.1455199000000012E-2</v>
-      </c>
-      <c r="AD26">
-        <v>3</v>
-      </c>
-      <c r="AE26">
-        <f t="shared" ref="AE26:AE35" si="12">AC25*Z$34</f>
-        <v>1.5243322203000011E-2</v>
-      </c>
-      <c r="AF26">
-        <f t="shared" ref="AF26:AF35" si="13">AC24*AA$34</f>
-        <v>4.7829690000000024E-3</v>
-      </c>
-      <c r="AG26">
-        <f>AC23*AB$34</f>
-        <v>7.2900000000000026E-4</v>
-      </c>
-      <c r="AH26">
+      <c r="AT26">
         <f t="shared" si="3"/>
         <v>2.0755291203000015E-2</v>
       </c>
-      <c r="AI26">
+      <c r="AU26">
+        <f t="shared" ref="AU26:AU38" si="19">AA24*$U$20</f>
+        <v>2.3245229340000018E-3</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="9"/>
+        <v>1.8430768269000013E-2</v>
+      </c>
+      <c r="AX26" s="5">
         <v>3</v>
       </c>
-      <c r="AJ26">
-        <f t="shared" si="8"/>
+      <c r="AY26" s="6">
+        <f t="shared" si="10"/>
         <v>1.5243322203000011E-2</v>
       </c>
-      <c r="AK26">
-        <f t="shared" ref="AK26:AK37" si="14">AH24*$AA$34</f>
+      <c r="AZ26" s="6">
+        <f t="shared" ref="AZ26:AZ41" si="20">AT24*$AB$34</f>
         <v>4.7829690000000024E-3</v>
       </c>
-      <c r="AL26">
-        <f>AH23*$AB$34</f>
+      <c r="BA26" s="6">
+        <f>AT23*$AC$34</f>
         <v>7.2900000000000026E-4</v>
       </c>
-      <c r="AM26">
-        <f t="shared" si="4"/>
+      <c r="BB26" s="24">
+        <f>SUM(AY26:BA26)</f>
         <v>2.0755291203000015E-2</v>
       </c>
-      <c r="AN26" s="5">
-        <v>3</v>
-      </c>
-      <c r="AO26" s="6">
-        <f t="shared" si="9"/>
-        <v>1.5243322203000011E-2</v>
-      </c>
-      <c r="AP26" s="6">
-        <f t="shared" ref="AP26:AP41" si="15">AM24*$AA$34</f>
-        <v>4.7829690000000024E-3</v>
-      </c>
-      <c r="AQ26" s="6">
-        <f>AM23*$AB$34</f>
-        <v>7.2900000000000026E-4</v>
-      </c>
-      <c r="AR26" s="7">
-        <f t="shared" si="5"/>
-        <v>2.0755291203000015E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="BC26" s="6">
+        <f t="shared" ref="BC26:BC35" si="21">AI24*$U$20</f>
+        <v>2.3245229340000018E-3</v>
+      </c>
+      <c r="BD26" s="31">
+        <f t="shared" si="11"/>
+        <v>1.8430768269000013E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:56" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>5</v>
       </c>
@@ -1530,7 +1806,7 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1297181459240009E-2</v>
       </c>
       <c r="G27">
@@ -1551,95 +1827,130 @@
         <v>8.1000000000000031E-5</v>
       </c>
       <c r="V27">
-        <f t="shared" ref="V27:V28" si="16">R25*3*Q$20^2*(1-Q$20)</f>
+        <f t="shared" ref="V27:V28" si="22">R25*3*Q$20^2*(1-Q$20)</f>
         <v>7.2900000000000026E-4</v>
       </c>
       <c r="W27">
-        <f t="shared" ref="W27:W29" si="17">R24*Q$20^3</f>
+        <f t="shared" ref="W27:W29" si="23">R24*Q$20^3</f>
         <v>2.4300000000000011E-4</v>
       </c>
-      <c r="X27" s="12">
+      <c r="X27" s="11">
+        <f>SUM(U27:W27)</f>
+        <v>1.0530000000000003E-3</v>
+      </c>
+      <c r="Y27" s="11"/>
+      <c r="Z27">
+        <v>4</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="4"/>
+        <v>2.3029110000000012E-3</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="13"/>
+        <v>1.7714700000000013E-3</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" ref="AC27:AC32" si="24">X24*AC$34</f>
+        <v>1.7714700000000008E-4</v>
+      </c>
+      <c r="AD27" s="11">
+        <f t="shared" si="5"/>
+        <v>4.2515280000000027E-3</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="14"/>
+        <v>3.5429400000000022E-4</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="6"/>
+        <v>3.8972340000000025E-3</v>
+      </c>
+      <c r="AH27">
+        <v>4</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="15"/>
+        <v>5.213613357000004E-3</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="16"/>
+        <v>1.6937024670000012E-3</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" ref="AK27:AK35" si="25">AD24*AC$34</f>
+        <v>1.7714700000000008E-4</v>
+      </c>
+      <c r="AL27" s="11">
         <f t="shared" si="2"/>
-        <v>1.0530000000000003E-3</v>
-      </c>
-      <c r="Y27">
+        <v>7.0844628240000051E-3</v>
+      </c>
+      <c r="AM27">
+        <f t="shared" si="17"/>
+        <v>6.0265409400000049E-4</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" si="7"/>
+        <v>6.4818087300000044E-3</v>
+      </c>
+      <c r="AO27" s="11"/>
+      <c r="AP27">
         <v>4</v>
       </c>
-      <c r="Z27">
-        <f t="shared" si="6"/>
-        <v>2.3029110000000012E-3</v>
-      </c>
-      <c r="AA27">
-        <f t="shared" si="11"/>
-        <v>1.7714700000000013E-3</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" ref="AB27:AB32" si="18">X24*AB$34</f>
-        <v>1.7714700000000008E-4</v>
-      </c>
-      <c r="AC27" s="12">
-        <f t="shared" si="7"/>
-        <v>4.2515280000000027E-3</v>
-      </c>
-      <c r="AD27">
-        <v>4</v>
-      </c>
-      <c r="AE27">
-        <f t="shared" si="12"/>
-        <v>5.213613357000004E-3</v>
-      </c>
-      <c r="AF27">
-        <f t="shared" si="13"/>
-        <v>1.6937024670000012E-3</v>
-      </c>
-      <c r="AG27">
-        <f t="shared" ref="AG27:AG35" si="19">AC24*AB$34</f>
-        <v>1.7714700000000008E-4</v>
-      </c>
-      <c r="AH27" s="12">
-        <f t="shared" si="3"/>
-        <v>7.0844628240000051E-3</v>
-      </c>
-      <c r="AI27">
-        <v>4</v>
-      </c>
-      <c r="AJ27">
+      <c r="AQ27">
         <f t="shared" si="8"/>
         <v>5.0435357623290046E-3</v>
       </c>
-      <c r="AK27">
-        <f t="shared" si="14"/>
+      <c r="AR27">
+        <f t="shared" si="18"/>
         <v>1.6937024670000012E-3</v>
       </c>
-      <c r="AL27">
-        <f t="shared" ref="AL27:AL38" si="20">AH24*$AB$34</f>
+      <c r="AS27">
+        <f t="shared" ref="AS27:AS38" si="26">AL24*$AC$34</f>
         <v>1.7714700000000008E-4</v>
       </c>
-      <c r="AM27" s="12">
-        <f t="shared" si="4"/>
+      <c r="AT27" s="11">
+        <f t="shared" si="3"/>
         <v>6.9143852293290058E-3</v>
       </c>
-      <c r="AN27" s="5">
+      <c r="AU27">
+        <f t="shared" si="19"/>
+        <v>5.648590729620005E-4</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" si="9"/>
+        <v>6.3495261563670056E-3</v>
+      </c>
+      <c r="AW27" s="11"/>
+      <c r="AX27" s="5">
         <v>4</v>
       </c>
-      <c r="AO27" s="6">
-        <f t="shared" si="9"/>
+      <c r="AY27" s="6">
+        <f t="shared" si="10"/>
         <v>5.0435357623290046E-3</v>
       </c>
-      <c r="AP27" s="6">
-        <f t="shared" si="15"/>
+      <c r="AZ27" s="6">
+        <f t="shared" si="20"/>
         <v>1.6937024670000012E-3</v>
       </c>
-      <c r="AQ27" s="6">
-        <f t="shared" ref="AQ27:AQ41" si="21">AM24*$AB$34</f>
+      <c r="BA27" s="6">
+        <f t="shared" ref="BA27:BA41" si="27">AT24*$AC$34</f>
         <v>1.7714700000000008E-4</v>
       </c>
-      <c r="AR27" s="11">
-        <f t="shared" si="5"/>
+      <c r="BB27" s="25">
+        <f>SUM(AY27:BA27)</f>
         <v>6.9143852293290058E-3</v>
       </c>
-    </row>
-    <row r="28" spans="3:44" x14ac:dyDescent="0.25">
+      <c r="BC27" s="6">
+        <f t="shared" si="21"/>
+        <v>5.648590729620005E-4</v>
+      </c>
+      <c r="BD27" s="31">
+        <f t="shared" si="11"/>
+        <v>6.3495261563670056E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:56" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>6</v>
       </c>
@@ -1648,7 +1959,7 @@
         <v>60</v>
       </c>
       <c r="F28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1297181459240009E-2</v>
       </c>
       <c r="G28">
@@ -1662,95 +1973,130 @@
         <v>0</v>
       </c>
       <c r="V28">
+        <f t="shared" si="22"/>
+        <v>2.7000000000000013E-5</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="23"/>
+        <v>2.7000000000000013E-5</v>
+      </c>
+      <c r="X28" s="11">
+        <f>SUM(U28:W28)</f>
+        <v>5.4000000000000025E-5</v>
+      </c>
+      <c r="Y28" s="11"/>
+      <c r="Z28">
+        <v>5</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="4"/>
+        <v>2.5587900000000014E-4</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="13"/>
+        <v>2.5587900000000014E-4</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="24"/>
+        <v>6.5610000000000044E-5</v>
+      </c>
+      <c r="AD28" s="11">
+        <f t="shared" si="5"/>
+        <v>5.773680000000003E-4</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="14"/>
+        <v>1.3122000000000008E-5</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="6"/>
+        <v>5.6424600000000034E-4</v>
+      </c>
+      <c r="AH28">
+        <v>5</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="15"/>
+        <v>1.0331213040000009E-3</v>
+      </c>
+      <c r="AJ28">
         <f t="shared" si="16"/>
-        <v>2.7000000000000013E-5</v>
-      </c>
-      <c r="W28">
+        <v>5.7929037300000045E-4</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="25"/>
+        <v>6.2729721000000048E-5</v>
+      </c>
+      <c r="AL28" s="11">
+        <f t="shared" si="2"/>
+        <v>1.6751413980000014E-3</v>
+      </c>
+      <c r="AM28">
         <f t="shared" si="17"/>
-        <v>2.7000000000000013E-5</v>
-      </c>
-      <c r="X28" s="12">
-        <f t="shared" si="2"/>
-        <v>5.4000000000000025E-5</v>
-      </c>
-      <c r="Y28">
+        <v>2.8697814000000024E-5</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="7"/>
+        <v>1.6464435840000014E-3</v>
+      </c>
+      <c r="AO28" s="11"/>
+      <c r="AP28">
         <v>5</v>
       </c>
-      <c r="Z28">
-        <f t="shared" si="6"/>
-        <v>2.5587900000000014E-4</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="11"/>
-        <v>2.5587900000000014E-4</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" si="18"/>
-        <v>6.5610000000000044E-5</v>
-      </c>
-      <c r="AC28" s="12">
-        <f t="shared" si="7"/>
-        <v>5.773680000000003E-4</v>
-      </c>
-      <c r="AD28">
-        <v>5</v>
-      </c>
-      <c r="AE28">
-        <f t="shared" si="12"/>
-        <v>1.0331213040000009E-3</v>
-      </c>
-      <c r="AF28">
-        <f t="shared" si="13"/>
-        <v>5.7929037300000045E-4</v>
-      </c>
-      <c r="AG28">
-        <f t="shared" si="19"/>
-        <v>6.2729721000000048E-5</v>
-      </c>
-      <c r="AH28" s="12">
-        <f t="shared" si="3"/>
-        <v>1.6751413980000014E-3</v>
-      </c>
-      <c r="AI28">
-        <v>5</v>
-      </c>
-      <c r="AJ28">
+      <c r="AQ28">
         <f t="shared" si="8"/>
         <v>1.7215244662320017E-3</v>
       </c>
-      <c r="AK28">
-        <f t="shared" si="14"/>
+      <c r="AR28">
+        <f t="shared" si="18"/>
         <v>5.6039286248100052E-4</v>
       </c>
-      <c r="AL28">
+      <c r="AS28">
+        <f t="shared" si="26"/>
+        <v>6.2729721000000048E-5</v>
+      </c>
+      <c r="AT28" s="11">
+        <f t="shared" si="3"/>
+        <v>2.3446470497130024E-3</v>
+      </c>
+      <c r="AU28">
+        <f t="shared" si="19"/>
+        <v>2.0920706406000022E-4</v>
+      </c>
+      <c r="AV28">
+        <f t="shared" si="9"/>
+        <v>2.1354399856530022E-3</v>
+      </c>
+      <c r="AW28" s="11"/>
+      <c r="AX28" s="5">
+        <v>5</v>
+      </c>
+      <c r="AY28" s="6">
+        <f t="shared" si="10"/>
+        <v>1.6801956107269488E-3</v>
+      </c>
+      <c r="AZ28" s="6">
         <f t="shared" si="20"/>
+        <v>5.6039286248100052E-4</v>
+      </c>
+      <c r="BA28" s="6">
+        <f t="shared" si="27"/>
         <v>6.2729721000000048E-5</v>
       </c>
-      <c r="AM28" s="12">
-        <f t="shared" si="4"/>
-        <v>2.3446470497130024E-3</v>
-      </c>
-      <c r="AN28" s="5">
-        <v>5</v>
-      </c>
-      <c r="AO28" s="6">
-        <f t="shared" si="9"/>
-        <v>1.6801956107269488E-3</v>
-      </c>
-      <c r="AP28" s="6">
-        <f t="shared" si="15"/>
-        <v>5.6039286248100052E-4</v>
-      </c>
-      <c r="AQ28" s="6">
+      <c r="BB28" s="25">
+        <f>SUM(AY28:BA28)</f>
+        <v>2.3033181942079496E-3</v>
+      </c>
+      <c r="BC28" s="6">
         <f t="shared" si="21"/>
-        <v>6.2729721000000048E-5</v>
-      </c>
-      <c r="AR28" s="11">
-        <f t="shared" si="5"/>
-        <v>2.3033181942079496E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="3:44" x14ac:dyDescent="0.25">
+        <v>2.0002287394776624E-4</v>
+      </c>
+      <c r="BD28" s="31">
+        <f t="shared" si="11"/>
+        <v>2.1032953202601832E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>28</v>
       </c>
@@ -1772,169 +2118,236 @@
         <v>0</v>
       </c>
       <c r="W29">
+        <f t="shared" si="23"/>
+        <v>1.0000000000000004E-6</v>
+      </c>
+      <c r="X29" s="11">
+        <f>SUM(U29:W29)</f>
+        <v>1.0000000000000004E-6</v>
+      </c>
+      <c r="Y29" s="11"/>
+      <c r="Z29">
+        <v>6</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="4"/>
+        <v>1.3122000000000009E-5</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="13"/>
+        <v>2.8431000000000016E-5</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="24"/>
+        <v>9.4770000000000043E-6</v>
+      </c>
+      <c r="AD29" s="11">
+        <f t="shared" si="5"/>
+        <v>5.1030000000000031E-5</v>
+      </c>
+      <c r="AE29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="6"/>
+        <v>5.1030000000000031E-5</v>
+      </c>
+      <c r="AH29">
+        <v>6</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="15"/>
+        <v>1.4030042400000009E-4</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="16"/>
+        <v>1.1479125600000009E-4</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="25"/>
+        <v>2.1455199000000015E-5</v>
+      </c>
+      <c r="AL29" s="11">
+        <f t="shared" si="2"/>
+        <v>2.7654687900000019E-4</v>
+      </c>
+      <c r="AM29">
         <f t="shared" si="17"/>
-        <v>1.0000000000000004E-6</v>
-      </c>
-      <c r="X29" s="12">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000004E-6</v>
-      </c>
-      <c r="Y29">
+        <v>1.0628820000000008E-6</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" si="7"/>
+        <v>2.7548399700000017E-4</v>
+      </c>
+      <c r="AO29" s="11"/>
+      <c r="AP29">
         <v>6</v>
       </c>
-      <c r="Z29">
-        <f t="shared" si="6"/>
-        <v>1.3122000000000009E-5</v>
-      </c>
-      <c r="AA29">
-        <f t="shared" si="11"/>
-        <v>2.8431000000000016E-5</v>
-      </c>
-      <c r="AB29">
-        <f t="shared" si="18"/>
-        <v>9.4770000000000043E-6</v>
-      </c>
-      <c r="AC29" s="12">
-        <f t="shared" si="7"/>
-        <v>5.1030000000000031E-5</v>
-      </c>
-      <c r="AD29">
-        <v>6</v>
-      </c>
-      <c r="AE29">
-        <f t="shared" si="12"/>
-        <v>1.4030042400000009E-4</v>
-      </c>
-      <c r="AF29">
-        <f t="shared" si="13"/>
-        <v>1.1479125600000009E-4</v>
-      </c>
-      <c r="AG29">
-        <f t="shared" si="19"/>
-        <v>2.1455199000000015E-5</v>
-      </c>
-      <c r="AH29" s="12">
-        <f t="shared" si="3"/>
-        <v>2.7654687900000019E-4</v>
-      </c>
-      <c r="AI29">
-        <v>6</v>
-      </c>
-      <c r="AJ29">
+      <c r="AQ29">
         <f t="shared" si="8"/>
         <v>4.0705935971400043E-4</v>
       </c>
-      <c r="AK29">
-        <f t="shared" si="14"/>
+      <c r="AR29">
+        <f t="shared" si="18"/>
         <v>1.9128049624800018E-4</v>
       </c>
-      <c r="AL29">
+      <c r="AS29">
+        <f t="shared" si="26"/>
+        <v>2.0755291203000021E-5</v>
+      </c>
+      <c r="AT29" s="11">
+        <f t="shared" si="3"/>
+        <v>6.1909514716500063E-4</v>
+      </c>
+      <c r="AU29">
+        <f t="shared" si="19"/>
+        <v>3.0218798142000029E-5</v>
+      </c>
+      <c r="AV29">
+        <f t="shared" si="9"/>
+        <v>5.8887634902300061E-4</v>
+      </c>
+      <c r="AW29" s="11"/>
+      <c r="AX29" s="5">
+        <v>6</v>
+      </c>
+      <c r="AY29" s="6">
+        <f t="shared" si="10"/>
+        <v>5.6974923308025967E-4</v>
+      </c>
+      <c r="AZ29" s="6">
         <f t="shared" si="20"/>
+        <v>1.8668840119188319E-4</v>
+      </c>
+      <c r="BA29" s="6">
+        <f t="shared" si="27"/>
         <v>2.0755291203000021E-5</v>
       </c>
-      <c r="AM29" s="12">
+      <c r="BB29" s="25">
+        <f>SUM(AY29:BA29)</f>
+        <v>7.7719292547514282E-4</v>
+      </c>
+      <c r="BC29" s="6">
+        <f t="shared" si="21"/>
+        <v>6.841303447055408E-5</v>
+      </c>
+      <c r="BD29" s="31">
+        <f t="shared" si="11"/>
+        <v>7.0877989100458878E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:56" x14ac:dyDescent="0.25">
+      <c r="Z30">
+        <v>7</v>
+      </c>
+      <c r="AA30">
         <f t="shared" si="4"/>
-        <v>6.1909514716500063E-4</v>
-      </c>
-      <c r="AN29" s="5">
-        <v>6</v>
-      </c>
-      <c r="AO29" s="6">
-        <f t="shared" si="9"/>
-        <v>5.6974923308025967E-4</v>
-      </c>
-      <c r="AP29" s="6">
+        <v>2.4300000000000015E-7</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="13"/>
+        <v>1.4580000000000011E-6</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="24"/>
+        <v>1.0530000000000005E-6</v>
+      </c>
+      <c r="AD30" s="11">
+        <f t="shared" si="5"/>
+        <v>2.7540000000000019E-6</v>
+      </c>
+      <c r="AE30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="6"/>
+        <v>2.7540000000000019E-6</v>
+      </c>
+      <c r="AH30">
+        <v>7</v>
+      </c>
+      <c r="AI30">
         <f t="shared" si="15"/>
-        <v>1.8668840119188319E-4</v>
-      </c>
-      <c r="AQ29" s="6">
-        <f t="shared" si="21"/>
-        <v>2.0755291203000021E-5</v>
-      </c>
-      <c r="AR29" s="11">
-        <f t="shared" si="5"/>
-        <v>7.7719292547514282E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:44" x14ac:dyDescent="0.25">
-      <c r="Y30">
+        <v>1.240029000000001E-5</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="16"/>
+        <v>1.5588936000000011E-5</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="25"/>
+        <v>4.251528000000004E-6</v>
+      </c>
+      <c r="AL30" s="11">
+        <f t="shared" si="2"/>
+        <v>3.2240754000000026E-5</v>
+      </c>
+      <c r="AM30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="7"/>
+        <v>3.2240754000000026E-5</v>
+      </c>
+      <c r="AO30" s="11"/>
+      <c r="AP30">
         <v>7</v>
       </c>
-      <c r="Z30">
-        <f t="shared" si="6"/>
-        <v>2.4300000000000015E-7</v>
-      </c>
-      <c r="AA30">
-        <f t="shared" si="11"/>
-        <v>1.4580000000000011E-6</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" si="18"/>
-        <v>1.0530000000000005E-6</v>
-      </c>
-      <c r="AC30" s="12">
-        <f t="shared" si="7"/>
-        <v>2.7540000000000019E-6</v>
-      </c>
-      <c r="AD30">
-        <v>7</v>
-      </c>
-      <c r="AE30">
-        <f t="shared" si="12"/>
-        <v>1.240029000000001E-5</v>
-      </c>
-      <c r="AF30">
-        <f t="shared" si="13"/>
-        <v>1.5588936000000011E-5</v>
-      </c>
-      <c r="AG30">
-        <f t="shared" si="19"/>
-        <v>4.251528000000004E-6</v>
-      </c>
-      <c r="AH30" s="12">
-        <f t="shared" si="3"/>
-        <v>3.2240754000000026E-5</v>
-      </c>
-      <c r="AI30">
-        <v>7</v>
-      </c>
-      <c r="AJ30">
+      <c r="AQ30">
         <f t="shared" si="8"/>
         <v>6.7200891597000054E-5</v>
       </c>
-      <c r="AK30">
-        <f t="shared" si="14"/>
+      <c r="AR30">
+        <f t="shared" si="18"/>
         <v>4.5228817746000053E-5</v>
       </c>
-      <c r="AL30">
+      <c r="AS30">
+        <f t="shared" si="26"/>
+        <v>7.0844628240000071E-6</v>
+      </c>
+      <c r="AT30" s="11">
+        <f t="shared" si="3"/>
+        <v>1.1951417216700011E-4</v>
+      </c>
+      <c r="AU30">
+        <f t="shared" si="19"/>
+        <v>3.3576442380000034E-6</v>
+      </c>
+      <c r="AV30">
+        <f t="shared" si="9"/>
+        <v>1.1615652792900011E-4</v>
+      </c>
+      <c r="AW30" s="11"/>
+      <c r="AX30" s="5">
+        <v>7</v>
+      </c>
+      <c r="AY30" s="6">
+        <f t="shared" si="10"/>
+        <v>1.5044012076109519E-4</v>
+      </c>
+      <c r="AZ30" s="6">
         <f t="shared" si="20"/>
-        <v>7.0844628240000071E-6</v>
-      </c>
-      <c r="AM30" s="12">
-        <f t="shared" si="4"/>
-        <v>1.1951417216700011E-4</v>
-      </c>
-      <c r="AN30" s="5">
-        <v>7</v>
-      </c>
-      <c r="AO30" s="6">
-        <f t="shared" si="9"/>
-        <v>1.5044012076109519E-4</v>
-      </c>
-      <c r="AP30" s="6">
-        <f t="shared" si="15"/>
         <v>6.3305470342251086E-5</v>
       </c>
-      <c r="AQ30" s="6">
+      <c r="BA30" s="6">
+        <f t="shared" si="27"/>
+        <v>6.914385229329007E-6</v>
+      </c>
+      <c r="BB30" s="25">
+        <f>SUM(AY30:BA30)</f>
+        <v>2.2065997633267527E-4</v>
+      </c>
+      <c r="BC30" s="6">
         <f t="shared" si="21"/>
-        <v>6.914385229329007E-6</v>
-      </c>
-      <c r="AR30" s="11">
-        <f t="shared" si="5"/>
-        <v>2.2065997633267527E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="3:44" x14ac:dyDescent="0.25">
+        <v>1.3556617751088017E-5</v>
+      </c>
+      <c r="BD30" s="31">
+        <f t="shared" si="11"/>
+        <v>2.0710335858158726E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>17</v>
       </c>
@@ -1950,84 +2363,117 @@
       <c r="G31" t="s">
         <v>27</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>8</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="13"/>
+        <v>2.7000000000000017E-8</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="24"/>
+        <v>5.400000000000004E-8</v>
+      </c>
+      <c r="AD31" s="11">
+        <f t="shared" si="5"/>
+        <v>8.100000000000005E-8</v>
+      </c>
+      <c r="AE31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF31">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <f t="shared" si="11"/>
-        <v>2.7000000000000017E-8</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" si="18"/>
-        <v>5.400000000000004E-8</v>
-      </c>
-      <c r="AC31" s="12">
+        <v>8.100000000000005E-8</v>
+      </c>
+      <c r="AH31">
+        <v>8</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="15"/>
+        <v>6.6922200000000059E-7</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="16"/>
+        <v>1.3778100000000011E-6</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="25"/>
+        <v>5.7736800000000046E-7</v>
+      </c>
+      <c r="AL31" s="11">
+        <f t="shared" si="2"/>
+        <v>2.6244000000000024E-6</v>
+      </c>
+      <c r="AM31">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN31">
         <f t="shared" si="7"/>
-        <v>8.100000000000005E-8</v>
-      </c>
-      <c r="AD31">
+        <v>2.6244000000000024E-6</v>
+      </c>
+      <c r="AO31" s="11"/>
+      <c r="AP31">
         <v>8</v>
       </c>
-      <c r="AE31">
-        <f t="shared" si="12"/>
-        <v>6.6922200000000059E-7</v>
-      </c>
-      <c r="AF31">
-        <f t="shared" si="13"/>
-        <v>1.3778100000000011E-6</v>
-      </c>
-      <c r="AG31">
-        <f t="shared" si="19"/>
-        <v>5.7736800000000046E-7</v>
-      </c>
-      <c r="AH31" s="12">
-        <f t="shared" si="3"/>
-        <v>2.6244000000000024E-6</v>
-      </c>
-      <c r="AI31">
-        <v>8</v>
-      </c>
-      <c r="AJ31">
+      <c r="AQ31">
         <f t="shared" si="8"/>
         <v>7.8345032220000078E-6</v>
       </c>
-      <c r="AK31">
-        <f t="shared" si="14"/>
+      <c r="AR31">
+        <f t="shared" si="18"/>
         <v>7.4667657330000071E-6</v>
       </c>
-      <c r="AL31">
+      <c r="AS31">
+        <f t="shared" si="26"/>
+        <v>1.6751413980000018E-6</v>
+      </c>
+      <c r="AT31" s="11">
+        <f t="shared" si="3"/>
+        <v>1.6976410353000018E-5</v>
+      </c>
+      <c r="AU31">
+        <f t="shared" si="19"/>
+        <v>1.7218688400000019E-7</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" si="9"/>
+        <v>1.6804223469000019E-5</v>
+      </c>
+      <c r="AW31" s="11"/>
+      <c r="AX31" s="5">
+        <v>8</v>
+      </c>
+      <c r="AY31" s="6">
+        <f t="shared" si="10"/>
+        <v>2.9041943836581033E-5</v>
+      </c>
+      <c r="AZ31" s="6">
         <f t="shared" si="20"/>
-        <v>1.6751413980000018E-6</v>
-      </c>
-      <c r="AM31" s="12">
-        <f t="shared" si="4"/>
-        <v>1.6976410353000018E-5</v>
-      </c>
-      <c r="AN31" s="5">
-        <v>8</v>
-      </c>
-      <c r="AO31" s="6">
-        <f t="shared" si="9"/>
-        <v>2.9041943836581033E-5</v>
-      </c>
-      <c r="AP31" s="6">
-        <f t="shared" si="15"/>
         <v>1.6715568973455022E-5</v>
       </c>
-      <c r="AQ31" s="6">
+      <c r="BA31" s="6">
+        <f t="shared" si="27"/>
+        <v>2.344647049713003E-6</v>
+      </c>
+      <c r="BB31" s="25">
+        <f>SUM(AY31:BA31)</f>
+        <v>4.8102159859749056E-5</v>
+      </c>
+      <c r="BC31" s="6">
         <f t="shared" si="21"/>
-        <v>2.344647049713003E-6</v>
-      </c>
-      <c r="AR31" s="11">
-        <f t="shared" si="5"/>
-        <v>4.8102159859749056E-5</v>
-      </c>
-    </row>
-    <row r="32" spans="3:44" x14ac:dyDescent="0.25">
+        <v>1.8410221637280018E-6</v>
+      </c>
+      <c r="BD31" s="31">
+        <f t="shared" si="11"/>
+        <v>4.6261137696021052E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:56" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>1</v>
       </c>
@@ -2041,84 +2487,117 @@
         <f>E32*F32</f>
         <v>0</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>9</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="24"/>
+        <v>1.0000000000000007E-9</v>
+      </c>
+      <c r="AD32" s="11">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000007E-9</v>
+      </c>
+      <c r="AE32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF32">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" si="18"/>
         <v>1.0000000000000007E-9</v>
       </c>
-      <c r="AC32" s="12">
+      <c r="AH32">
+        <v>9</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="15"/>
+        <v>1.9683000000000015E-8</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="16"/>
+        <v>7.4358000000000076E-8</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="25"/>
+        <v>5.1030000000000041E-8</v>
+      </c>
+      <c r="AL32" s="11">
+        <f t="shared" si="2"/>
+        <v>1.4507100000000015E-7</v>
+      </c>
+      <c r="AM32">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN32">
         <f t="shared" si="7"/>
-        <v>1.0000000000000007E-9</v>
-      </c>
-      <c r="AD32">
+        <v>1.4507100000000015E-7</v>
+      </c>
+      <c r="AO32" s="11"/>
+      <c r="AP32">
         <v>9</v>
       </c>
-      <c r="AE32">
-        <f t="shared" si="12"/>
-        <v>1.9683000000000015E-8</v>
-      </c>
-      <c r="AF32">
-        <f t="shared" si="13"/>
-        <v>7.4358000000000076E-8</v>
-      </c>
-      <c r="AG32">
-        <f t="shared" si="19"/>
-        <v>5.1030000000000041E-8</v>
-      </c>
-      <c r="AH32" s="12">
-        <f t="shared" si="3"/>
-        <v>1.4507100000000015E-7</v>
-      </c>
-      <c r="AI32">
-        <v>9</v>
-      </c>
-      <c r="AJ32">
+      <c r="AQ32">
         <f t="shared" si="8"/>
         <v>6.3772920000000073E-7</v>
       </c>
-      <c r="AK32">
-        <f t="shared" si="14"/>
+      <c r="AR32">
+        <f t="shared" si="18"/>
         <v>8.7050035800000095E-7</v>
       </c>
-      <c r="AL32">
+      <c r="AS32">
+        <f t="shared" si="26"/>
+        <v>2.7654687900000024E-7</v>
+      </c>
+      <c r="AT32" s="11">
+        <f t="shared" si="3"/>
+        <v>1.7847764370000019E-6</v>
+      </c>
+      <c r="AU32">
+        <f t="shared" si="19"/>
+        <v>3.1886460000000034E-9</v>
+      </c>
+      <c r="AV32">
+        <f t="shared" si="9"/>
+        <v>1.781587791000002E-6</v>
+      </c>
+      <c r="AW32" s="11"/>
+      <c r="AX32" s="5">
+        <v>9</v>
+      </c>
+      <c r="AY32" s="6">
+        <f t="shared" si="10"/>
+        <v>4.1252677157790052E-6</v>
+      </c>
+      <c r="AZ32" s="6">
         <f t="shared" si="20"/>
-        <v>2.7654687900000024E-7</v>
-      </c>
-      <c r="AM32" s="12">
-        <f t="shared" si="4"/>
-        <v>1.7847764370000019E-6</v>
-      </c>
-      <c r="AN32" s="5">
-        <v>9</v>
-      </c>
-      <c r="AO32" s="6">
-        <f t="shared" si="9"/>
-        <v>4.1252677157790052E-6</v>
-      </c>
-      <c r="AP32" s="6">
-        <f t="shared" si="15"/>
         <v>3.2268826485090038E-6</v>
       </c>
-      <c r="AQ32" s="6">
+      <c r="BA32" s="6">
+        <f t="shared" si="27"/>
+        <v>6.1909514716500075E-7</v>
+      </c>
+      <c r="BB32" s="25">
+        <f>SUM(AY32:BA32)</f>
+        <v>7.9712455114530089E-6</v>
+      </c>
+      <c r="BC32" s="6">
         <f t="shared" si="21"/>
-        <v>6.1909514716500075E-7</v>
-      </c>
-      <c r="AR32" s="11">
-        <f t="shared" si="5"/>
-        <v>7.9712455114530089E-6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+        <v>1.6271660538000019E-7</v>
+      </c>
+      <c r="BD32" s="31">
+        <f t="shared" si="11"/>
+        <v>7.8085289060730086E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>2</v>
       </c>
@@ -2129,68 +2608,94 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33:G37" si="22">E33*F33</f>
-        <v>0</v>
-      </c>
-      <c r="AD33">
+        <f t="shared" ref="G33:G37" si="28">E33*F33</f>
+        <v>0</v>
+      </c>
+      <c r="AH33">
         <v>10</v>
       </c>
-      <c r="AE33">
-        <f t="shared" si="12"/>
+      <c r="AI33">
+        <f t="shared" si="15"/>
         <v>2.4300000000000019E-10</v>
       </c>
-      <c r="AF33">
-        <f t="shared" si="13"/>
+      <c r="AJ33">
+        <f t="shared" si="16"/>
         <v>2.1870000000000021E-9</v>
       </c>
-      <c r="AG33">
-        <f t="shared" si="19"/>
+      <c r="AK33">
+        <f t="shared" si="25"/>
         <v>2.7540000000000027E-9</v>
       </c>
-      <c r="AH33" s="12">
-        <f t="shared" si="3"/>
+      <c r="AL33" s="11">
+        <f t="shared" si="2"/>
         <v>5.1840000000000053E-9</v>
       </c>
-      <c r="AI33">
+      <c r="AM33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <f t="shared" si="7"/>
+        <v>5.1840000000000053E-9</v>
+      </c>
+      <c r="AO33" s="11"/>
+      <c r="AP33">
         <v>10</v>
       </c>
-      <c r="AJ33">
+      <c r="AQ33">
         <f t="shared" si="8"/>
         <v>3.5252253000000041E-8</v>
       </c>
-      <c r="AK33">
-        <f t="shared" si="14"/>
+      <c r="AR33">
+        <f t="shared" si="18"/>
         <v>7.0858800000000081E-8</v>
       </c>
-      <c r="AL33">
+      <c r="AS33">
+        <f t="shared" si="26"/>
+        <v>3.2240754000000031E-8</v>
+      </c>
+      <c r="AT33" s="11">
+        <f t="shared" si="3"/>
+        <v>1.3835180700000017E-7</v>
+      </c>
+      <c r="AU33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <f t="shared" si="9"/>
+        <v>1.3835180700000017E-7</v>
+      </c>
+      <c r="AW33" s="11"/>
+      <c r="AX33" s="5">
+        <v>10</v>
+      </c>
+      <c r="AY33" s="6">
+        <f t="shared" si="10"/>
+        <v>4.3370067419100057E-7</v>
+      </c>
+      <c r="AZ33" s="6">
         <f t="shared" si="20"/>
-        <v>3.2240754000000031E-8</v>
-      </c>
-      <c r="AM33" s="12">
-        <f t="shared" si="4"/>
-        <v>1.3835180700000017E-7</v>
-      </c>
-      <c r="AN33" s="5">
-        <v>10</v>
-      </c>
-      <c r="AO33" s="6">
-        <f t="shared" si="9"/>
-        <v>4.3370067419100057E-7</v>
-      </c>
-      <c r="AP33" s="6">
-        <f t="shared" si="15"/>
         <v>4.583630795310006E-7</v>
       </c>
-      <c r="AQ33" s="6">
+      <c r="BA33" s="6">
+        <f t="shared" si="27"/>
+        <v>1.1951417216700013E-7</v>
+      </c>
+      <c r="BB33" s="25">
+        <f>SUM(AY33:BA33)</f>
+        <v>1.0115779258890014E-6</v>
+      </c>
+      <c r="BC33" s="6">
         <f t="shared" si="21"/>
-        <v>1.1951417216700013E-7</v>
-      </c>
-      <c r="AR33" s="11">
-        <f t="shared" si="5"/>
-        <v>1.0115779258890014E-6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+        <v>8.7815310840000108E-9</v>
+      </c>
+      <c r="BD33" s="31">
+        <f t="shared" si="11"/>
+        <v>1.0027963948050013E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>3</v>
       </c>
@@ -2201,551 +2706,794 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z34">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA34">
         <f>3*$Q$20*(1-$Q$20)^2</f>
         <v>0.24300000000000005</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <f>3*$Q$20^2*(1-$Q$20)</f>
         <v>2.7000000000000007E-2</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <f>$Q$20^3</f>
         <v>1.0000000000000002E-3</v>
       </c>
-      <c r="AD34">
+      <c r="AH34">
         <v>11</v>
       </c>
-      <c r="AE34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <f t="shared" si="13"/>
+      <c r="AI34">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="16"/>
         <v>2.7000000000000026E-11</v>
       </c>
-      <c r="AG34">
-        <f t="shared" si="19"/>
+      <c r="AK34">
+        <f t="shared" si="25"/>
         <v>8.1000000000000069E-11</v>
       </c>
-      <c r="AH34" s="12">
-        <f t="shared" si="3"/>
+      <c r="AL34" s="11">
+        <f t="shared" si="2"/>
         <v>1.0800000000000009E-10</v>
       </c>
-      <c r="AI34">
+      <c r="AM34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <f t="shared" si="7"/>
+        <v>1.0800000000000009E-10</v>
+      </c>
+      <c r="AO34" s="11"/>
+      <c r="AP34">
         <v>11</v>
       </c>
-      <c r="AJ34">
+      <c r="AQ34">
         <f t="shared" si="8"/>
         <v>1.2597120000000015E-9</v>
       </c>
-      <c r="AK34">
-        <f t="shared" si="14"/>
+      <c r="AR34">
+        <f t="shared" si="18"/>
         <v>3.9169170000000046E-9</v>
       </c>
-      <c r="AL34">
+      <c r="AS34">
+        <f t="shared" si="26"/>
+        <v>2.6244000000000031E-9</v>
+      </c>
+      <c r="AT34" s="11">
+        <f t="shared" si="3"/>
+        <v>7.8010290000000091E-9</v>
+      </c>
+      <c r="AU34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <f t="shared" si="9"/>
+        <v>7.8010290000000091E-9</v>
+      </c>
+      <c r="AW34" s="11"/>
+      <c r="AX34" s="5">
+        <v>11</v>
+      </c>
+      <c r="AY34" s="6">
+        <f t="shared" si="10"/>
+        <v>3.3619489101000048E-8</v>
+      </c>
+      <c r="AZ34" s="6">
         <f t="shared" si="20"/>
-        <v>2.6244000000000031E-9</v>
-      </c>
-      <c r="AM34" s="12">
-        <f t="shared" si="4"/>
-        <v>7.8010290000000091E-9</v>
-      </c>
-      <c r="AN34" s="5">
-        <v>11</v>
-      </c>
-      <c r="AO34" s="6">
-        <f t="shared" si="9"/>
-        <v>3.3619489101000048E-8</v>
-      </c>
-      <c r="AP34" s="6">
-        <f t="shared" si="15"/>
         <v>4.8188963799000065E-8</v>
       </c>
-      <c r="AQ34" s="6">
+      <c r="BA34" s="6">
+        <f t="shared" si="27"/>
+        <v>1.6976410353000022E-8</v>
+      </c>
+      <c r="BB34" s="25">
+        <f>SUM(AY34:BA34)</f>
+        <v>9.8784863253000139E-8</v>
+      </c>
+      <c r="BC34" s="6">
         <f t="shared" si="21"/>
-        <v>1.6976410353000022E-8</v>
-      </c>
-      <c r="AR34" s="11">
-        <f t="shared" si="5"/>
-        <v>9.8784863253000139E-8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+        <v>2.5828032600000032E-10</v>
+      </c>
+      <c r="BD34" s="31">
+        <f t="shared" si="11"/>
+        <v>9.8526582927000135E-8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>4</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="12">
         <v>40</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="12">
         <f>R40</f>
-        <v>2.0986546372205858E-2</v>
-      </c>
-      <c r="G35" s="13">
-        <f t="shared" si="22"/>
-        <v>0.83946185488823433</v>
-      </c>
-      <c r="AD35">
+        <v>0.14561136928852861</v>
+      </c>
+      <c r="G35" s="12">
+        <f t="shared" si="28"/>
+        <v>5.8244547715411441</v>
+      </c>
+      <c r="AH35">
         <v>12</v>
       </c>
-      <c r="AE35">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AG35">
-        <f t="shared" si="19"/>
+      <c r="AI35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="25"/>
         <v>1.000000000000001E-12</v>
       </c>
-      <c r="AH35" s="12">
-        <f t="shared" si="3"/>
+      <c r="AL35" s="11">
+        <f t="shared" si="2"/>
         <v>1.000000000000001E-12</v>
       </c>
-      <c r="AI35">
+      <c r="AM35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <f t="shared" si="7"/>
+        <v>1.000000000000001E-12</v>
+      </c>
+      <c r="AO35" s="11"/>
+      <c r="AP35">
         <v>12</v>
       </c>
-      <c r="AJ35">
+      <c r="AQ35">
         <f t="shared" si="8"/>
         <v>2.6244000000000029E-11</v>
       </c>
-      <c r="AK35">
-        <f t="shared" si="14"/>
+      <c r="AR35">
+        <f t="shared" si="18"/>
         <v>1.3996800000000017E-10</v>
       </c>
-      <c r="AL35">
+      <c r="AS35">
+        <f t="shared" si="26"/>
+        <v>1.4507100000000019E-10</v>
+      </c>
+      <c r="AT35" s="11">
+        <f t="shared" si="3"/>
+        <v>3.1128300000000042E-10</v>
+      </c>
+      <c r="AU35">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <f t="shared" si="9"/>
+        <v>3.1128300000000042E-10</v>
+      </c>
+      <c r="AW35" s="11"/>
+      <c r="AX35" s="5">
+        <v>12</v>
+      </c>
+      <c r="AY35" s="6">
+        <f t="shared" si="10"/>
+        <v>1.8956500470000026E-9</v>
+      </c>
+      <c r="AZ35" s="6">
         <f t="shared" si="20"/>
-        <v>1.4507100000000019E-10</v>
-      </c>
-      <c r="AM35" s="12">
-        <f t="shared" si="4"/>
-        <v>3.1128300000000042E-10</v>
-      </c>
-      <c r="AN35" s="5">
-        <v>12</v>
-      </c>
-      <c r="AO35" s="6">
-        <f t="shared" si="9"/>
-        <v>1.8956500470000026E-9</v>
-      </c>
-      <c r="AP35" s="6">
-        <f t="shared" si="15"/>
         <v>3.7354987890000052E-9</v>
       </c>
-      <c r="AQ35" s="6">
+      <c r="BA35" s="6">
+        <f t="shared" si="27"/>
+        <v>1.7847764370000024E-9</v>
+      </c>
+      <c r="BB35" s="25">
+        <f>SUM(AY35:BA35)</f>
+        <v>7.4159252730000102E-9</v>
+      </c>
+      <c r="BC35" s="6">
         <f t="shared" si="21"/>
-        <v>1.7847764370000024E-9</v>
-      </c>
-      <c r="AR35" s="11">
-        <f t="shared" si="5"/>
-        <v>7.4159252730000102E-9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+        <v>3.1886460000000039E-12</v>
+      </c>
+      <c r="BD35" s="31">
+        <f t="shared" si="11"/>
+        <v>7.4127366270000102E-9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>5</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="12">
         <v>50</v>
       </c>
-      <c r="F36" s="13">
-        <f t="shared" ref="F36:F37" si="23">R41</f>
-        <v>5.6940112445907302E-3</v>
-      </c>
-      <c r="G36" s="13">
-        <f t="shared" si="22"/>
-        <v>0.28470056222953649</v>
-      </c>
-      <c r="AI36">
+      <c r="F36" s="12">
+        <f t="shared" ref="F36:F37" si="29">R41</f>
+        <v>4.3656052249537246E-2</v>
+      </c>
+      <c r="G36" s="12">
+        <f t="shared" si="28"/>
+        <v>2.1828026124768622</v>
+      </c>
+      <c r="AP36">
         <v>13</v>
       </c>
-      <c r="AJ36">
+      <c r="AQ36">
         <f t="shared" si="8"/>
         <v>2.4300000000000028E-13</v>
       </c>
-      <c r="AK36">
-        <f t="shared" si="14"/>
+      <c r="AR36">
+        <f t="shared" si="18"/>
         <v>2.9160000000000033E-12</v>
       </c>
-      <c r="AL36">
+      <c r="AS36">
+        <f t="shared" si="26"/>
+        <v>5.1840000000000062E-12</v>
+      </c>
+      <c r="AT36" s="11">
+        <f t="shared" si="3"/>
+        <v>8.34300000000001E-12</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <f t="shared" si="9"/>
+        <v>8.34300000000001E-12</v>
+      </c>
+      <c r="AW36" s="11"/>
+      <c r="AX36" s="5">
+        <v>13</v>
+      </c>
+      <c r="AY36" s="6">
+        <f t="shared" si="10"/>
+        <v>7.564176900000012E-11</v>
+      </c>
+      <c r="AZ36" s="6">
         <f t="shared" si="20"/>
-        <v>5.1840000000000062E-12</v>
-      </c>
-      <c r="AM36" s="12">
-        <f t="shared" si="4"/>
-        <v>8.34300000000001E-12</v>
-      </c>
-      <c r="AN36" s="5">
-        <v>13</v>
-      </c>
-      <c r="AO36" s="6">
-        <f t="shared" si="9"/>
-        <v>7.564176900000012E-11</v>
-      </c>
-      <c r="AP36" s="6">
-        <f t="shared" si="15"/>
         <v>2.106277830000003E-10</v>
       </c>
-      <c r="AQ36" s="6">
-        <f t="shared" si="21"/>
+      <c r="BA36" s="6">
+        <f t="shared" si="27"/>
         <v>1.3835180700000019E-10</v>
       </c>
-      <c r="AR36" s="11">
-        <f t="shared" si="5"/>
+      <c r="BB36" s="25">
+        <f>SUM(AY36:BA36)</f>
         <v>4.2462135900000066E-10</v>
       </c>
-    </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="BC36" s="6">
+        <v>0</v>
+      </c>
+      <c r="BD36" s="31">
+        <f t="shared" si="11"/>
+        <v>4.2462135900000066E-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>6</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="12">
         <v>60</v>
       </c>
-      <c r="F37" s="13">
-        <f t="shared" si="23"/>
-        <v>1.4680458325494286E-3</v>
-      </c>
-      <c r="G37" s="13">
-        <f t="shared" si="22"/>
-        <v>8.8082749952965708E-2</v>
-      </c>
-      <c r="AI37">
+      <c r="F37" s="12">
+        <f t="shared" si="29"/>
+        <v>1.4655944720255365E-2</v>
+      </c>
+      <c r="G37" s="12">
+        <f t="shared" si="28"/>
+        <v>0.8793566832153219</v>
+      </c>
+      <c r="AP37">
         <v>14</v>
       </c>
-      <c r="AJ37">
+      <c r="AQ37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AK37">
-        <f t="shared" si="14"/>
+      <c r="AR37">
+        <f t="shared" si="18"/>
         <v>2.7000000000000033E-14</v>
       </c>
-      <c r="AL37">
+      <c r="AS37">
+        <f t="shared" si="26"/>
+        <v>1.0800000000000012E-13</v>
+      </c>
+      <c r="AT37" s="11">
+        <f t="shared" si="3"/>
+        <v>1.3500000000000016E-13</v>
+      </c>
+      <c r="AU37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <f t="shared" si="9"/>
+        <v>1.3500000000000016E-13</v>
+      </c>
+      <c r="AW37" s="11"/>
+      <c r="AX37" s="5">
+        <v>14</v>
+      </c>
+      <c r="AY37" s="6">
+        <f t="shared" si="10"/>
+        <v>2.0273490000000029E-12</v>
+      </c>
+      <c r="AZ37" s="6">
         <f t="shared" si="20"/>
-        <v>1.0800000000000012E-13</v>
-      </c>
-      <c r="AM37" s="12">
-        <f t="shared" si="4"/>
-        <v>1.3500000000000016E-13</v>
-      </c>
-      <c r="AN37" s="5">
-        <v>14</v>
-      </c>
-      <c r="AO37" s="6">
-        <f t="shared" si="9"/>
-        <v>2.0273490000000029E-12</v>
-      </c>
-      <c r="AP37" s="6">
-        <f t="shared" si="15"/>
         <v>8.4046410000000131E-12</v>
       </c>
-      <c r="AQ37" s="6">
-        <f t="shared" si="21"/>
+      <c r="BA37" s="6">
+        <f t="shared" si="27"/>
         <v>7.8010290000000107E-12</v>
       </c>
-      <c r="AR37" s="11">
-        <f t="shared" si="5"/>
+      <c r="BB37" s="25">
+        <f>SUM(AY37:BA37)</f>
         <v>1.8233019000000028E-11</v>
       </c>
-    </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="BC37" s="6">
+        <f t="shared" ref="BC37:BC42" si="30">AI35*$U$20</f>
+        <v>0</v>
+      </c>
+      <c r="BD37" s="31">
+        <f t="shared" si="11"/>
+        <v>1.8233019000000028E-11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13">
+      <c r="E38" s="12"/>
+      <c r="F38" s="12">
         <f>SUM(F32:F37)</f>
-        <v>2.8148603449346016E-2</v>
-      </c>
-      <c r="G38" s="13">
+        <v>0.20392336625832122</v>
+      </c>
+      <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
-        <v>1.2122451670707366</v>
-      </c>
-      <c r="AI38">
+        <v>8.886614067233328</v>
+      </c>
+      <c r="AP38">
         <v>15</v>
       </c>
-      <c r="AJ38">
-        <f>AH37*Z$34</f>
-        <v>0</v>
-      </c>
-      <c r="AK38">
-        <f t="shared" ref="AK38" si="24">AH37*$AA$34</f>
-        <v>0</v>
-      </c>
-      <c r="AL38">
+      <c r="AQ38">
+        <f>AL37*AA$34</f>
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <f t="shared" ref="AR38" si="31">AL37*$AB$34</f>
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <f t="shared" si="26"/>
+        <v>1.0000000000000013E-15</v>
+      </c>
+      <c r="AT38" s="11">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000013E-15</v>
+      </c>
+      <c r="AU38">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <f t="shared" si="9"/>
+        <v>1.0000000000000013E-15</v>
+      </c>
+      <c r="AW38" s="11"/>
+      <c r="AX38" s="5">
+        <v>15</v>
+      </c>
+      <c r="AY38" s="6">
+        <f t="shared" si="10"/>
+        <v>3.2805000000000043E-14</v>
+      </c>
+      <c r="AZ38" s="6">
         <f t="shared" si="20"/>
-        <v>1.0000000000000013E-15</v>
-      </c>
-      <c r="AM38" s="12">
-        <f t="shared" si="4"/>
-        <v>1.0000000000000013E-15</v>
-      </c>
-      <c r="AN38" s="5">
-        <v>15</v>
-      </c>
-      <c r="AO38" s="6">
-        <f t="shared" si="9"/>
-        <v>3.2805000000000043E-14</v>
-      </c>
-      <c r="AP38" s="6">
-        <f t="shared" si="15"/>
         <v>2.2526100000000032E-13</v>
       </c>
-      <c r="AQ38" s="6">
-        <f t="shared" si="21"/>
+      <c r="BA38" s="6">
+        <f t="shared" si="27"/>
         <v>3.1128300000000048E-13</v>
       </c>
-      <c r="AR38" s="11">
-        <f t="shared" si="5"/>
+      <c r="BB38" s="25">
+        <f>SUM(AY38:BA38)</f>
         <v>5.6934900000000083E-13</v>
       </c>
-    </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="AN39" s="5">
+      <c r="BC38" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BD38" s="31">
+        <f t="shared" si="11"/>
+        <v>5.6934900000000083E-13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
+        <v>68</v>
+      </c>
+      <c r="R39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX39" s="5">
         <v>16</v>
       </c>
-      <c r="AO39" s="6">
-        <f t="shared" si="9"/>
+      <c r="AY39" s="6">
+        <f t="shared" si="10"/>
         <v>2.4300000000000035E-16</v>
       </c>
-      <c r="AP39" s="6">
-        <f t="shared" si="15"/>
+      <c r="AZ39" s="6">
+        <f t="shared" si="20"/>
         <v>3.6450000000000054E-15</v>
       </c>
-      <c r="AQ39" s="6">
-        <f t="shared" si="21"/>
+      <c r="BA39" s="6">
+        <f t="shared" si="27"/>
         <v>8.3430000000000127E-15</v>
       </c>
-      <c r="AR39" s="11">
-        <f t="shared" si="5"/>
+      <c r="BB39" s="25">
+        <f>SUM(AY39:BA39)</f>
         <v>1.2231000000000018E-14</v>
       </c>
-    </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="Q40" s="13">
+      <c r="BC39" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BD39" s="31">
+        <f t="shared" si="11"/>
+        <v>1.2231000000000018E-14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Q40" s="12">
         <v>4</v>
       </c>
-      <c r="R40" s="13">
-        <f>X40+AC40+AH40+AM40+AR27</f>
-        <v>2.0986546372205858E-2</v>
-      </c>
-      <c r="X40">
-        <f>X27*Z$23</f>
+      <c r="R40" s="12">
+        <f>X40+AF40+AN40+AV40+BD27</f>
+        <v>0.14561136928852861</v>
+      </c>
+      <c r="X40" s="27">
+        <f>X27*AA$23</f>
         <v>7.6763700000000038E-4</v>
       </c>
-      <c r="AC40">
-        <f>AC27*AE$23</f>
+      <c r="AD40">
+        <f>AD27*AI$23</f>
         <v>3.0993639120000024E-3</v>
       </c>
-      <c r="AH40">
-        <f>AH27*AJ$23</f>
+      <c r="AF40" s="29">
+        <f>AF24*AI$23</f>
+        <v>0.12914016300000006</v>
+      </c>
+      <c r="AL40">
+        <f>AL27*AQ$23</f>
         <v>5.1645733986960046E-3</v>
       </c>
-      <c r="AM40" s="12">
-        <f>AM27*AO$23</f>
+      <c r="AN40" s="27">
+        <f>AN27*AQ$23</f>
+        <v>4.7252385641700038E-3</v>
+      </c>
+      <c r="AT40" s="28">
+        <f>AT27*AY$23</f>
         <v>5.0405868321808456E-3</v>
       </c>
-      <c r="AN40" s="5">
+      <c r="AU40" s="28"/>
+      <c r="AV40" s="11">
+        <f>AV27*AY$23</f>
+        <v>4.6288045679915473E-3</v>
+      </c>
+      <c r="AW40" s="11"/>
+      <c r="AX40" s="5">
         <v>17</v>
       </c>
-      <c r="AO40" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AP40" s="6">
-        <f t="shared" si="15"/>
+      <c r="AY40" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="6">
+        <f t="shared" si="20"/>
         <v>2.7000000000000041E-17</v>
       </c>
-      <c r="AQ40" s="6">
-        <f t="shared" si="21"/>
+      <c r="BA40" s="6">
+        <f t="shared" si="27"/>
         <v>1.350000000000002E-16</v>
       </c>
-      <c r="AR40" s="11">
-        <f t="shared" si="5"/>
+      <c r="BB40" s="25">
+        <f>SUM(AY40:BA40)</f>
         <v>1.6200000000000024E-16</v>
       </c>
-    </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="Q41" s="13">
+      <c r="BC40" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BD40" s="31">
+        <f t="shared" si="11"/>
+        <v>1.6200000000000024E-16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Q41" s="12">
         <v>5</v>
       </c>
-      <c r="R41" s="13">
-        <f t="shared" ref="R41:R44" si="25">X41+AC41+AH41+AM41+AR28</f>
-        <v>5.6940112445907302E-3</v>
-      </c>
-      <c r="X41">
-        <f t="shared" ref="X41:X44" si="26">X28*Z$23</f>
+      <c r="R41" s="12">
+        <f t="shared" ref="R41:R44" si="32">X41+AF41+AN41+AV41+BD28</f>
+        <v>4.3656052249537246E-2</v>
+      </c>
+      <c r="X41" s="27">
+        <f t="shared" ref="X41:X44" si="33">X28*AA$23</f>
         <v>3.9366000000000023E-5</v>
       </c>
-      <c r="AC41">
-        <f t="shared" ref="AC41:AC45" si="27">AC28*AE$23</f>
+      <c r="AD41">
+        <f t="shared" ref="AD41:AD45" si="34">AD28*AI$23</f>
         <v>4.2090127200000027E-4</v>
       </c>
-      <c r="AH41">
-        <f t="shared" ref="AH41:AH51" si="28">AH28*AJ$23</f>
+      <c r="AF41" s="29">
+        <f t="shared" ref="AF41:AF45" si="35">AF25*AI$23</f>
+        <v>3.8756397807000027E-2</v>
+      </c>
+      <c r="AL41">
+        <f t="shared" ref="AL41:AN51" si="36">AL28*AQ$23</f>
         <v>1.2211780791420012E-3</v>
       </c>
-      <c r="AM41" s="12">
-        <f t="shared" ref="AM41:AM51" si="29">AM28*AO$23</f>
+      <c r="AN41" s="27">
+        <f t="shared" ref="AN41:AN50" si="37">AN28*AQ$23</f>
+        <v>1.2002573727360011E-3</v>
+      </c>
+      <c r="AT41" s="28">
+        <f t="shared" ref="AT41:AV51" si="38">AT28*AY$23</f>
         <v>1.7092476992407789E-3</v>
       </c>
-      <c r="AN41" s="5">
+      <c r="AU41" s="28"/>
+      <c r="AV41" s="11">
+        <f t="shared" ref="AV41:AV51" si="39">AV28*AY$23</f>
+        <v>1.5567357495410389E-3</v>
+      </c>
+      <c r="AW41" s="11"/>
+      <c r="AX41" s="5">
         <v>18</v>
       </c>
-      <c r="AO41" s="6">
-        <f t="shared" si="9"/>
+      <c r="AY41" s="6">
+        <f t="shared" si="10"/>
         <v>1.2248626002199458E-3</v>
       </c>
-      <c r="AP41" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ41" s="6">
-        <f t="shared" si="21"/>
+      <c r="AZ41" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BA41" s="6">
+        <f t="shared" si="27"/>
         <v>1.0000000000000014E-18</v>
       </c>
-      <c r="AR41" s="11">
-        <f t="shared" si="5"/>
+      <c r="BB41" s="25">
+        <f>SUM(AY41:BA41)</f>
         <v>1.2248626002199468E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BC41" s="6">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BD41" s="31">
+        <f t="shared" si="11"/>
+        <v>1.2248626002199468E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>22</v>
       </c>
       <c r="B42" t="s">
         <v>23</v>
       </c>
-      <c r="Q42" s="13">
+      <c r="Q42" s="12">
         <v>6</v>
       </c>
-      <c r="R42" s="13">
-        <f t="shared" si="25"/>
-        <v>1.4680458325494286E-3</v>
-      </c>
-      <c r="X42">
-        <f t="shared" si="26"/>
+      <c r="R42" s="12">
+        <f t="shared" si="32"/>
+        <v>1.4655944720255365E-2</v>
+      </c>
+      <c r="X42" s="27">
+        <f t="shared" si="33"/>
         <v>7.2900000000000035E-7</v>
       </c>
-      <c r="AC42">
-        <f t="shared" si="27"/>
+      <c r="AD42">
+        <f t="shared" si="34"/>
         <v>3.720087000000003E-5</v>
       </c>
-      <c r="AH42">
-        <f t="shared" si="28"/>
+      <c r="AF42" s="29">
+        <f t="shared" si="35"/>
+        <v>1.3316317137000008E-2</v>
+      </c>
+      <c r="AL42">
+        <f t="shared" si="36"/>
         <v>2.0160267479100018E-4</v>
       </c>
-      <c r="AM42" s="12">
-        <f t="shared" si="29"/>
+      <c r="AN42" s="27">
+        <f t="shared" si="37"/>
+        <v>2.0082783381300014E-4</v>
+      </c>
+      <c r="AT42" s="28">
+        <f t="shared" si="38"/>
         <v>4.5132036228328552E-4</v>
       </c>
-      <c r="AN42" s="8"/>
-      <c r="AO42" s="9"/>
-      <c r="AP42" s="9"/>
-      <c r="AQ42" s="9"/>
-      <c r="AR42" s="10"/>
-    </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="Q43" s="13">
+      <c r="AU42" s="28"/>
+      <c r="AV42" s="11">
+        <f t="shared" si="39"/>
+        <v>4.2929085843776752E-4</v>
+      </c>
+      <c r="AW42" s="11"/>
+      <c r="AX42" s="8"/>
+      <c r="AY42" s="9"/>
+      <c r="AZ42" s="9"/>
+      <c r="BA42" s="9"/>
+      <c r="BB42" s="26"/>
+      <c r="BC42" s="9">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="BD42" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Q43" s="12">
         <v>7</v>
       </c>
-      <c r="R43" s="13">
-        <f t="shared" si="25"/>
-        <v>3.3329698350841838E-4</v>
-      </c>
-      <c r="X43">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AC43">
-        <f t="shared" si="27"/>
+      <c r="R43" s="12">
+        <f t="shared" si="32"/>
+        <v>3.1563685631078309E-3</v>
+      </c>
+      <c r="X43" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="34"/>
         <v>2.0076660000000015E-6</v>
       </c>
-      <c r="AH43">
-        <f t="shared" si="28"/>
+      <c r="AF43" s="29">
+        <f t="shared" si="35"/>
+        <v>2.8410835860000023E-3</v>
+      </c>
+      <c r="AL43">
+        <f t="shared" si="36"/>
         <v>2.3503509666000022E-5</v>
       </c>
-      <c r="AM43" s="12">
-        <f t="shared" si="29"/>
+      <c r="AN43" s="27">
+        <f t="shared" si="37"/>
+        <v>2.3503509666000022E-5</v>
+      </c>
+      <c r="AT43" s="28">
+        <f t="shared" si="38"/>
         <v>8.7125831509743089E-5</v>
       </c>
-    </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="Q44" s="13">
+      <c r="AU43" s="28"/>
+      <c r="AV43" s="11">
+        <f t="shared" si="39"/>
+        <v>8.4678108860241085E-5</v>
+      </c>
+      <c r="AW43" s="11"/>
+    </row>
+    <row r="44" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Q44" s="12">
         <v>8</v>
       </c>
-      <c r="R44" s="13">
-        <f t="shared" si="25"/>
-        <v>6.2450199607086068E-5</v>
-      </c>
-      <c r="X44">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AC44">
-        <f t="shared" si="27"/>
+      <c r="R44" s="12">
+        <f t="shared" si="32"/>
+        <v>4.7175993820492242E-4</v>
+      </c>
+      <c r="X44" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="34"/>
         <v>5.9049000000000041E-8</v>
       </c>
-      <c r="AH44">
-        <f t="shared" si="28"/>
+      <c r="AF44" s="29">
+        <f t="shared" si="35"/>
+        <v>4.1133533400000032E-4</v>
+      </c>
+      <c r="AL44">
+        <f t="shared" si="36"/>
         <v>1.9131876000000018E-6</v>
       </c>
-      <c r="AM44" s="12">
-        <f t="shared" si="29"/>
+      <c r="AN44" s="27">
+        <f t="shared" si="37"/>
+        <v>1.9131876000000018E-6</v>
+      </c>
+      <c r="AT44" s="28">
+        <f t="shared" si="38"/>
         <v>1.2375803147337015E-5</v>
       </c>
-    </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AU44" s="28"/>
+      <c r="AV44" s="11">
+        <f t="shared" si="39"/>
+        <v>1.2250278908901015E-5</v>
+      </c>
+      <c r="AW44" s="11"/>
+    </row>
+    <row r="45" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>0</v>
       </c>
-      <c r="AC45">
-        <f t="shared" si="27"/>
+      <c r="AD45">
+        <f t="shared" si="34"/>
         <v>7.2900000000000058E-10</v>
       </c>
-      <c r="AH45">
-        <f t="shared" si="28"/>
+      <c r="AF45" s="29">
+        <f t="shared" si="35"/>
+        <v>3.720087000000003E-5</v>
+      </c>
+      <c r="AL45">
+        <f t="shared" si="36"/>
         <v>1.0575675900000012E-7</v>
       </c>
-      <c r="AM45" s="12">
-        <f t="shared" si="29"/>
+      <c r="AN45" s="27">
+        <f t="shared" si="37"/>
+        <v>1.0575675900000012E-7</v>
+      </c>
+      <c r="AT45" s="28">
+        <f t="shared" si="38"/>
         <v>1.3011020225730015E-6</v>
       </c>
-    </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="AH46">
-        <f t="shared" si="28"/>
+      <c r="AU45" s="28"/>
+      <c r="AV45" s="11">
+        <f t="shared" si="39"/>
+        <v>1.2987774996390016E-6</v>
+      </c>
+      <c r="AW45" s="11"/>
+    </row>
+    <row r="46" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AL46">
+        <f t="shared" si="36"/>
         <v>3.7791360000000039E-9</v>
       </c>
-      <c r="AM46" s="12">
-        <f t="shared" si="29"/>
+      <c r="AN46" s="27">
+        <f t="shared" si="37"/>
+        <v>3.7791360000000039E-9</v>
+      </c>
+      <c r="AT46" s="28">
+        <f t="shared" si="38"/>
         <v>1.0085846730300014E-7</v>
       </c>
-    </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AU46" s="28"/>
+      <c r="AV46" s="11">
+        <f t="shared" si="39"/>
+        <v>1.0085846730300014E-7</v>
+      </c>
+      <c r="AW46" s="11"/>
+    </row>
+    <row r="47" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>24</v>
       </c>
-      <c r="AH47">
-        <f t="shared" si="28"/>
+      <c r="AL47">
+        <f t="shared" si="36"/>
         <v>7.8732000000000078E-11</v>
       </c>
-      <c r="AM47" s="12">
-        <f t="shared" si="29"/>
+      <c r="AN47" s="27">
+        <f t="shared" si="37"/>
+        <v>7.8732000000000078E-11</v>
+      </c>
+      <c r="AT47" s="28">
+        <f t="shared" si="38"/>
         <v>5.6869501410000075E-9</v>
       </c>
-    </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AU47" s="28"/>
+      <c r="AV47" s="11">
+        <f t="shared" si="39"/>
+        <v>5.6869501410000075E-9</v>
+      </c>
+      <c r="AW47" s="11"/>
+    </row>
+    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>25</v>
       </c>
@@ -2773,16 +3521,26 @@
       <c r="M48">
         <v>50</v>
       </c>
-      <c r="AH48">
-        <f t="shared" si="28"/>
+      <c r="AL48">
+        <f t="shared" si="36"/>
         <v>7.2900000000000083E-13</v>
       </c>
-      <c r="AM48" s="12">
-        <f t="shared" si="29"/>
+      <c r="AN48" s="27">
+        <f t="shared" si="37"/>
+        <v>7.2900000000000083E-13</v>
+      </c>
+      <c r="AT48" s="28">
+        <f t="shared" si="38"/>
         <v>2.2692530700000033E-10</v>
       </c>
-    </row>
-    <row r="49" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="AU48" s="28"/>
+      <c r="AV48" s="11">
+        <f t="shared" si="39"/>
+        <v>2.2692530700000033E-10</v>
+      </c>
+      <c r="AW48" s="11"/>
+    </row>
+    <row r="49" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -2811,77 +3569,107 @@
         <f>SUM(G49:M49)</f>
         <v>1</v>
       </c>
-      <c r="AH49">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AM49" s="12">
-        <f t="shared" si="29"/>
+      <c r="AL49">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AN49" s="27">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AT49" s="28">
+        <f t="shared" si="38"/>
         <v>6.0820470000000079E-12</v>
       </c>
-    </row>
-    <row r="50" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="AU49" s="28"/>
+      <c r="AV49" s="11">
+        <f t="shared" si="39"/>
+        <v>6.0820470000000079E-12</v>
+      </c>
+      <c r="AW49" s="11"/>
+    </row>
+    <row r="50" spans="3:49" x14ac:dyDescent="0.25">
       <c r="G50">
         <f>G48*G49</f>
         <v>0.15</v>
       </c>
       <c r="H50">
-        <f t="shared" ref="H50" si="30">H48*H49</f>
+        <f t="shared" ref="H50" si="40">H48*H49</f>
         <v>0.3</v>
       </c>
       <c r="I50">
-        <f t="shared" ref="I50" si="31">I48*I49</f>
+        <f t="shared" ref="I50" si="41">I48*I49</f>
         <v>0.44999999999999996</v>
       </c>
       <c r="J50">
-        <f t="shared" ref="J50" si="32">J48*J49</f>
+        <f t="shared" ref="J50" si="42">J48*J49</f>
         <v>0.75</v>
       </c>
       <c r="K50">
-        <f t="shared" ref="K50" si="33">K48*K49</f>
+        <f t="shared" ref="K50" si="43">K48*K49</f>
         <v>1.5</v>
       </c>
       <c r="L50">
-        <f t="shared" ref="L50" si="34">L48*L49</f>
+        <f t="shared" ref="L50" si="44">L48*L49</f>
         <v>3.75</v>
       </c>
       <c r="M50">
-        <f t="shared" ref="M50" si="35">M48*M49</f>
+        <f t="shared" ref="M50" si="45">M48*M49</f>
         <v>5</v>
       </c>
       <c r="N50">
         <f>SUM(G50:M50)</f>
         <v>11.9</v>
       </c>
-      <c r="AH50">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AM50" s="12">
-        <f t="shared" si="29"/>
+      <c r="AL50">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AN50" s="27">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AT50" s="28">
+        <f t="shared" si="38"/>
         <v>9.8415000000000129E-14</v>
       </c>
-    </row>
-    <row r="51" spans="3:39" x14ac:dyDescent="0.25">
-      <c r="AH51">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AM51" s="12">
-        <f t="shared" si="29"/>
+      <c r="AU50" s="28"/>
+      <c r="AV50" s="11">
+        <f t="shared" si="39"/>
+        <v>9.8415000000000129E-14</v>
+      </c>
+      <c r="AW50" s="11"/>
+    </row>
+    <row r="51" spans="3:49" x14ac:dyDescent="0.25">
+      <c r="AL51">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AN51" s="27"/>
+      <c r="AT51" s="28">
+        <f t="shared" si="38"/>
         <v>7.29000000000001E-16</v>
       </c>
-    </row>
-    <row r="52" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="AU51" s="28"/>
+      <c r="AV51" s="11">
+        <f t="shared" si="39"/>
+        <v>7.29000000000001E-16</v>
+      </c>
+      <c r="AW51" s="11"/>
+    </row>
+    <row r="52" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>26</v>
       </c>
       <c r="E52">
         <v>0.2</v>
       </c>
-      <c r="AM52" s="12"/>
-    </row>
-    <row r="53" spans="3:39" x14ac:dyDescent="0.25">
+      <c r="AT52" s="11"/>
+      <c r="AU52" s="11"/>
+      <c r="AV52" s="11"/>
+      <c r="AW52" s="11"/>
+    </row>
+    <row r="53" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>12</v>
       </c>
@@ -2910,7 +3698,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -2940,33 +3728,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:49" x14ac:dyDescent="0.25">
       <c r="G55">
         <f>G53*G54</f>
         <v>0.15</v>
       </c>
       <c r="H55">
-        <f t="shared" ref="H55" si="36">H53*H54</f>
+        <f t="shared" ref="H55" si="46">H53*H54</f>
         <v>0.3</v>
       </c>
       <c r="I55">
-        <f t="shared" ref="I55" si="37">I53*I54</f>
+        <f t="shared" ref="I55" si="47">I53*I54</f>
         <v>0.44999999999999996</v>
       </c>
       <c r="J55">
-        <f t="shared" ref="J55" si="38">J53*J54</f>
+        <f t="shared" ref="J55" si="48">J53*J54</f>
         <v>0.75</v>
       </c>
       <c r="K55">
-        <f t="shared" ref="K55" si="39">K53*K54</f>
+        <f t="shared" ref="K55" si="49">K53*K54</f>
         <v>1.5</v>
       </c>
       <c r="L55">
-        <f t="shared" ref="L55" si="40">L53*L54</f>
+        <f t="shared" ref="L55" si="50">L53*L54</f>
         <v>3.75</v>
       </c>
       <c r="M55">
-        <f t="shared" ref="M55" si="41">M53*M54</f>
+        <f t="shared" ref="M55" si="51">M53*M54</f>
         <v>5</v>
       </c>
       <c r="N55">
@@ -2974,7 +3762,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="57" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:49" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>16</v>
       </c>
@@ -3000,7 +3788,7 @@
   <sheetData>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3024,7 +3812,7 @@
         <v>50</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>0.2</v>
@@ -3093,7 +3881,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>0.1</v>
@@ -3101,18 +3889,18 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -3384,7 +4172,7 @@
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3404,28 +4192,28 @@
   <sheetData>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>0.1</v>
@@ -3486,10 +4274,10 @@
       <c r="O6" s="6">
         <v>8</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="14">
         <v>8</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="14">
         <v>8</v>
       </c>
       <c r="R6" s="7">
@@ -3705,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="M16">
         <f t="shared" ref="M16:R16" si="6">$N$3* M6*$N$3*(1-$N$3)^(M6-1)</f>
@@ -3911,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
@@ -4285,7 +5073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCFE22F-2E91-4004-80E1-AD1F07239FFD}">
   <dimension ref="B3:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
@@ -4293,31 +5081,31 @@
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
       <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="H3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C4" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -4337,7 +5125,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="14"/>
+      <c r="C5" s="13"/>
       <c r="H5">
         <v>12</v>
       </c>
@@ -4346,7 +5134,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="14"/>
+      <c r="C6" s="13"/>
       <c r="H6">
         <v>8</v>
       </c>
@@ -4355,14 +5143,14 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="14"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="14"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="14" t="s">
-        <v>60</v>
+      <c r="C9" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -4382,7 +5170,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="14"/>
+      <c r="C10" s="13"/>
       <c r="H10">
         <v>9</v>
       </c>
@@ -4391,7 +5179,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="14"/>
+      <c r="C11" s="13"/>
       <c r="H11">
         <v>11</v>
       </c>
@@ -4400,11 +5188,11 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="14"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="14" t="s">
-        <v>61</v>
+      <c r="C13" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -4424,7 +5212,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
+      <c r="C14" s="13"/>
       <c r="H14">
         <v>11</v>
       </c>
@@ -4433,7 +5221,7 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
+      <c r="C15" s="13"/>
       <c r="H15">
         <v>10</v>
       </c>
@@ -4442,7 +5230,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="14"/>
+      <c r="C16" s="13"/>
       <c r="H16">
         <v>7</v>
       </c>
@@ -4451,8 +5239,8 @@
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="14" t="s">
-        <v>62</v>
+      <c r="C17" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -4472,7 +5260,7 @@
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="14"/>
+      <c r="C18" s="13"/>
       <c r="H18">
         <v>12</v>
       </c>
@@ -4481,7 +5269,7 @@
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="14"/>
+      <c r="C19" s="13"/>
       <c r="H19">
         <v>10</v>
       </c>
@@ -4490,11 +5278,11 @@
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="14"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="14" t="s">
-        <v>63</v>
+      <c r="C21" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -4514,7 +5302,7 @@
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="14"/>
+      <c r="C22" s="13"/>
       <c r="H22">
         <v>11</v>
       </c>
@@ -4523,7 +5311,7 @@
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="14"/>
+      <c r="C23" s="13"/>
       <c r="H23">
         <v>13</v>
       </c>
@@ -4532,7 +5320,7 @@
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="14"/>
+      <c r="C24" s="13"/>
       <c r="H24">
         <v>13</v>
       </c>
@@ -4541,7 +5329,7 @@
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="14"/>
+      <c r="C25" s="13"/>
       <c r="H25">
         <v>10</v>
       </c>
@@ -4550,7 +5338,7 @@
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="14"/>
+      <c r="C26" s="13"/>
       <c r="H26">
         <v>9</v>
       </c>
@@ -4559,11 +5347,11 @@
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="14"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="14" t="s">
-        <v>65</v>
+      <c r="C28" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="E28">
         <v>4</v>
@@ -4583,7 +5371,7 @@
       </c>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="14"/>
+      <c r="C29" s="13"/>
       <c r="H29">
         <v>14</v>
       </c>
@@ -4592,7 +5380,7 @@
       </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="14"/>
+      <c r="C30" s="13"/>
       <c r="H30">
         <v>11</v>
       </c>
@@ -4601,7 +5389,7 @@
       </c>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="14"/>
+      <c r="C31" s="13"/>
       <c r="H31">
         <v>11</v>
       </c>
@@ -4610,7 +5398,7 @@
       </c>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="14"/>
+      <c r="C32" s="13"/>
       <c r="H32">
         <v>14</v>
       </c>
@@ -4619,7 +5407,7 @@
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C33" s="14"/>
+      <c r="C33" s="13"/>
       <c r="H33">
         <v>11</v>
       </c>
@@ -4628,11 +5416,11 @@
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C34" s="14"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="14" t="s">
-        <v>66</v>
+      <c r="C35" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -4652,7 +5440,7 @@
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="14"/>
+      <c r="C36" s="13"/>
       <c r="H36">
         <v>11</v>
       </c>
@@ -4661,7 +5449,7 @@
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="14"/>
+      <c r="C37" s="13"/>
       <c r="H37">
         <v>11</v>
       </c>
@@ -4670,7 +5458,7 @@
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="14"/>
+      <c r="C38" s="13"/>
       <c r="H38">
         <v>8</v>
       </c>
@@ -4679,7 +5467,7 @@
       </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="14"/>
+      <c r="C39" s="13"/>
       <c r="H39">
         <v>8</v>
       </c>
@@ -4688,7 +5476,7 @@
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="14"/>
+      <c r="C40" s="13"/>
       <c r="H40">
         <v>11</v>
       </c>
@@ -4697,7 +5485,7 @@
       </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="14"/>
+      <c r="C41" s="13"/>
       <c r="H41">
         <v>11</v>
       </c>
@@ -4706,7 +5494,7 @@
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C42" s="14"/>
+      <c r="C42" s="13"/>
       <c r="H42">
         <v>8</v>
       </c>
@@ -4715,11 +5503,11 @@
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="14"/>
+      <c r="C43" s="13"/>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="14" t="s">
-        <v>67</v>
+      <c r="C44" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -4735,7 +5523,7 @@
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="14"/>
+      <c r="C45" s="13"/>
       <c r="H45">
         <v>12</v>
       </c>
@@ -4744,7 +5532,7 @@
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="14"/>
+      <c r="C46" s="13"/>
       <c r="H46">
         <v>11</v>
       </c>
@@ -4753,7 +5541,7 @@
       </c>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="14"/>
+      <c r="C47" s="13"/>
       <c r="H47">
         <v>12</v>
       </c>
@@ -4762,11 +5550,11 @@
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C48" s="14"/>
+      <c r="C48" s="13"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="14" t="s">
-        <v>68</v>
+      <c r="C49" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="E49">
         <v>4</v>
@@ -4782,7 +5570,7 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="14"/>
+      <c r="C50" s="13"/>
       <c r="H50">
         <v>14</v>
       </c>
@@ -4791,7 +5579,7 @@
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="14"/>
+      <c r="C51" s="13"/>
       <c r="H51">
         <v>12</v>
       </c>
@@ -4800,7 +5588,7 @@
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="14"/>
+      <c r="C52" s="13"/>
       <c r="H52">
         <v>10</v>
       </c>
@@ -4809,11 +5597,11 @@
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="14"/>
+      <c r="C53" s="13"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="14" t="s">
-        <v>69</v>
+      <c r="C54" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -4829,7 +5617,7 @@
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="14"/>
+      <c r="C55" s="13"/>
       <c r="H55">
         <v>9</v>
       </c>
@@ -4838,7 +5626,7 @@
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C56" s="14"/>
+      <c r="C56" s="13"/>
       <c r="H56">
         <v>11</v>
       </c>
@@ -4847,11 +5635,11 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="14"/>
+      <c r="C57" s="13"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C58" s="14" t="s">
-        <v>70</v>
+      <c r="C58" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -4871,7 +5659,7 @@
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C59" s="14"/>
+      <c r="C59" s="13"/>
       <c r="H59">
         <v>13</v>
       </c>
@@ -4880,7 +5668,7 @@
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C60" s="14"/>
+      <c r="C60" s="13"/>
       <c r="H60">
         <v>11</v>
       </c>
@@ -4889,7 +5677,7 @@
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C61" s="14"/>
+      <c r="C61" s="13"/>
       <c r="H61">
         <v>8</v>
       </c>
@@ -4898,14 +5686,14 @@
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C62" s="14"/>
+      <c r="C62" s="13"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="E63">
         <v>3</v>
@@ -4921,7 +5709,7 @@
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C64" s="14"/>
+      <c r="C64" s="13"/>
       <c r="H64">
         <v>11</v>
       </c>
@@ -4930,7 +5718,7 @@
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="14"/>
+      <c r="C65" s="13"/>
       <c r="H65">
         <v>11</v>
       </c>
@@ -4939,7 +5727,7 @@
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="14"/>
+      <c r="C66" s="13"/>
       <c r="H66">
         <v>8</v>
       </c>
@@ -4948,14 +5736,14 @@
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="14"/>
+      <c r="C67" s="13"/>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="14"/>
+      <c r="C68" s="13"/>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="14" t="s">
-        <v>73</v>
+      <c r="C69" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="E69">
         <v>3</v>
@@ -4965,7 +5753,7 @@
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="14"/>
+      <c r="C70" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
